--- a/dist/document/dest/2020/10/doctors/223.xlsx
+++ b/dist/document/dest/2020/10/doctors/223.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>241</v>
       </c>
-      <c r="C2" s="1">
-        <v>1829190</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>1398</v>
       </c>
-      <c r="C3" s="1">
-        <v>3215400</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>1114</v>
       </c>
-      <c r="C4" s="1">
-        <v>3843300</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>290</v>
       </c>
-      <c r="C5" s="1">
-        <v>2392500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>396000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>225</v>
       </c>
-      <c r="C7" s="1">
-        <v>3836250</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>899</v>
       </c>
-      <c r="C8" s="1">
-        <v>3101550</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>14700</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>45</v>
       </c>
-      <c r="C11" s="1">
-        <v>139725</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>372</v>
       </c>
-      <c r="C12" s="1">
-        <v>2455200</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>120</v>
       </c>
-      <c r="C13" s="1">
-        <v>1980000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>494</v>
       </c>
-      <c r="C14" s="1">
-        <v>3260400</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>269</v>
       </c>
-      <c r="C15" s="1">
-        <v>1745810</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>392</v>
       </c>
-      <c r="C16" s="1">
-        <v>1172080</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="1">
-        <v>1760000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>200</v>
       </c>
-      <c r="C18" s="1">
-        <v>3960000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>204</v>
       </c>
-      <c r="C19" s="1">
-        <v>1102620</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>338</v>
       </c>
-      <c r="C20" s="1">
-        <v>5465460</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>399</v>
       </c>
-      <c r="C21" s="1">
-        <v>1193010</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>13</v>
       </c>
-      <c r="C22" s="1">
-        <v>1287000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="1">
-        <v>1155600</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
-        <v>37950</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>284</v>
       </c>
-      <c r="C25" s="1">
-        <v>1593240</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>180</v>
       </c>
-      <c r="C26" s="1">
-        <v>1386000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>9</v>
       </c>
-      <c r="C27" s="1">
-        <v>9000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>33</v>
       </c>
-      <c r="C28" s="1">
-        <v>5445000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>229</v>
       </c>
-      <c r="C29" s="1">
-        <v>8564600</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>94</v>
       </c>
-      <c r="C30" s="1">
-        <v>1551000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>622</v>
       </c>
-      <c r="C31" s="1">
-        <v>5473600</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
-        <v>155250</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>214</v>
       </c>
-      <c r="C33" s="1">
-        <v>3860560</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>50</v>
       </c>
-      <c r="C34" s="1">
-        <v>935000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>74</v>
       </c>
-      <c r="C35" s="1">
-        <v>1872200</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
-        <v>181500</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>368</v>
       </c>
-      <c r="C37" s="1">
-        <v>10120000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -801,7 +693,7 @@
         <v>9352</v>
       </c>
       <c r="C38" s="1">
-        <v>86642495</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/223.xlsx
+++ b/dist/document/dest/2020/10/doctors/223.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,303 +402,708 @@
         <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>241</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="1">
+        <v>675510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>1398</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>113850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B4" s="1">
-        <v>1114</v>
+        <v>416</v>
+      </c>
+      <c r="C4" s="1">
+        <v>956800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B5" s="1">
-        <v>290</v>
+        <v>268</v>
+      </c>
+      <c r="C5" s="1">
+        <v>616400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Benita (Budesonide)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>92000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>225</v>
+        <v>328</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1131600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>899</v>
+        <v>188</v>
+      </c>
+      <c r="C8" s="1">
+        <v>648600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ciloxan (Ciprofloxacin Hcl 0.3%) collye</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C9" s="1">
+        <v>610500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve">Cồn Boric </v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1193500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B12" s="1">
-        <v>372</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>165600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B13" s="1">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>69000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Eldosin (Erdosteine 300mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B14" s="1">
-        <v>494</v>
+        <v>265</v>
+      </c>
+      <c r="C14" s="1">
+        <v>914250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>269</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>792000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>392</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>528000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v xml:space="preserve">Cồn Boric </v>
       </c>
       <c r="B18" s="1">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7350</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>204</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>31050</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>338</v>
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10900</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>399</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Medoral (Chlorhexidin 250ml)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>13</v>
+        <v>90</v>
+      </c>
+      <c r="C22" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>224400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>112</v>
+      </c>
+      <c r="C24" s="1">
+        <v>739200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>284</v>
+        <v>120</v>
+      </c>
+      <c r="C25" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>180</v>
+        <v>105</v>
+      </c>
+      <c r="C26" s="1">
+        <v>681450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B27" s="1">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>313500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>PhilDesona (Budesonide 10ml)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>89700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Pricefil (Cefprozil 500mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>229</v>
+        <v>120</v>
+      </c>
+      <c r="C29" s="1">
+        <v>358800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B30" s="1">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1056000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>622</v>
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C32" s="1">
+        <v>871200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>214</v>
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>81075</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Virclath (Clarithromycin 500mg)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C35" s="1">
+        <v>367540</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Xypenat 75ml</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B36" s="1">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>226380</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Zinecox (Cefditoren 200mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B37" s="1">
-        <v>368</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
+        <v>808500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1">
+        <v>224250</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>256800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>770400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <v>63250</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>78540</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>36</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1346400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>135</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2227500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B56" s="1">
+        <v>90</v>
+      </c>
+      <c r="C56" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B57" s="1">
+        <v>95</v>
+      </c>
+      <c r="C57" s="1">
+        <v>836000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1154560</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>541200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1265000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>254100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>82</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2255000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B38" s="1">
-        <v>9352</v>
-      </c>
-      <c r="C38" s="1">
-        <v>NaN</v>
+      <c r="B65" s="1">
+        <v>3886</v>
+      </c>
+      <c r="C65" s="1">
+        <v>35684155</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C65"/>
   </ignoredErrors>
 </worksheet>
 </file>